--- a/biology/Médecine/Jim_Parrott/Jim_Parrott.xlsx
+++ b/biology/Médecine/Jim_Parrott/Jim_Parrott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jim Parrott, né le 15 septembre 1942 et mort le 4 octobre 2016, est un cardiologue et un homme politique canadien. Il représente la circonscription de Fundy-River Valley à l'Assemblée législative du Nouveau-Brunswick depuis l'élection générale du 27 septembre 2010.
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a fait ses études de médecine à l'Université du Manitoba et suivi une spécialisation en chirurgie cardiaque à la faculté de médecine de l'Université Stanford en Californie. Arrivé à Saint-Jean en 1990, il fonde le Centre cardiaque de l'hôpital régional de Saint-Jean, qu'il dirige jusqu'à sa retraite, en 2007. Depuis, il pratique la médecine à temps partiel au service des soins intensifs de l'hôpital régional. Il est propriétaire d’une ferme de 150 acres, où il pratique l'élevage des quarter-horses et des chiens de troupeau australiens. Une partie de sa ferme a été transformée en vignoble.
-Il est également impliqué au sein de Boxe Canada, à titre de médecin bénévole lors de compétitions[1].
-Le 20 septembre 2012, il est expulsé du caucus progressiste-conservateur par le premier ministre David Alward à la suite de ses propos tenus sur le programme de santé et le bilinguisme officiel[2].
-Le 30 avril 2014, il annonce qu'il rejoint son parti[3].
+Il est également impliqué au sein de Boxe Canada, à titre de médecin bénévole lors de compétitions.
+Le 20 septembre 2012, il est expulsé du caucus progressiste-conservateur par le premier ministre David Alward à la suite de ses propos tenus sur le programme de santé et le bilinguisme officiel.
+Le 30 avril 2014, il annonce qu'il rejoint son parti.
 </t>
         </is>
       </c>
